--- a/Capex/raw_data/Events-old.xlsx
+++ b/Capex/raw_data/Events-old.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26903"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -275,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,14 +679,14 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="47.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -692,7 +705,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -703,7 +716,7 @@
         <v>7358</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -711,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -722,7 +735,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -733,7 +746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -744,7 +757,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -755,7 +768,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -766,7 +779,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -777,7 +790,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -788,7 +801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -799,7 +812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -810,7 +823,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -821,7 +834,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -829,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -837,7 +850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -845,7 +858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -853,7 +866,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -861,7 +874,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -872,7 +885,7 @@
         <v>6311</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -883,7 +896,7 @@
         <v>12203</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -891,7 +904,7 @@
         <v>7358</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -902,7 +915,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -910,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -921,7 +934,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -932,7 +945,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -943,7 +956,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -954,7 +967,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -965,7 +978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -976,7 +989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -987,7 +1000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -998,7 +1011,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -1009,7 +1022,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -1020,7 +1033,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -1031,7 +1044,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1039,7 +1052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -1047,7 +1060,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
@@ -1058,7 +1071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -1069,7 +1082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -1080,7 +1093,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1088,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
@@ -1099,7 +1112,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1110,7 +1123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -1121,7 +1134,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -1132,7 +1145,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1143,7 +1156,7 @@
         <v>7304</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -1154,7 +1167,7 @@
         <v>11853</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -1165,7 +1178,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -1173,7 +1186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -1184,7 +1197,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -1195,7 +1208,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
@@ -1203,7 +1216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
@@ -1214,7 +1227,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
@@ -1225,7 +1238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
@@ -1233,7 +1246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
@@ -1241,7 +1254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
@@ -1252,7 +1265,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -1263,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -1271,7 +1284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -1279,7 +1292,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
@@ -1287,7 +1300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -1295,7 +1308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
@@ -1306,7 +1319,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
@@ -1317,7 +1330,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -1328,7 +1341,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
@@ -1336,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
@@ -1344,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -1355,7 +1368,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -1363,7 +1376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
@@ -1371,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
@@ -1379,7 +1392,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
@@ -1390,7 +1403,7 @@
         <v>9976</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
@@ -1401,7 +1414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
@@ -1409,7 +1422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
@@ -1417,7 +1430,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
@@ -1428,7 +1441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
@@ -1439,7 +1452,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
@@ -1450,7 +1463,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
@@ -1461,7 +1474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
@@ -1472,7 +1485,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
@@ -1480,7 +1493,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
